--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Epha5.xlsx
@@ -528,22 +528,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H2">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I2">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J2">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N2">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.106393746144</v>
+        <v>0.0058309765925</v>
       </c>
       <c r="R2">
-        <v>0.6383624768640001</v>
+        <v>0.034985859555</v>
       </c>
       <c r="S2">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="T2">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>3.110073</v>
       </c>
       <c r="I3">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J3">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N3">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.640311159459</v>
+        <v>0.0245960123205</v>
       </c>
       <c r="R3">
-        <v>3.841866956754</v>
+        <v>0.147576073923</v>
       </c>
       <c r="S3">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="T3">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H4">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I4">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J4">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N4">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.3087902204805</v>
+        <v>0.00986246495775</v>
       </c>
       <c r="R4">
-        <v>1.235160881922</v>
+        <v>0.039449859831</v>
       </c>
       <c r="S4">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="T4">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
     </row>
   </sheetData>
